--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Egf-Erbb4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Egf-Erbb4.xlsx
@@ -543,28 +543,28 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.055305</v>
+        <v>0.14295</v>
       </c>
       <c r="H2">
-        <v>0.11061</v>
+        <v>0.2859</v>
       </c>
       <c r="I2">
-        <v>0.05948165296722621</v>
+        <v>0.2060161421345645</v>
       </c>
       <c r="J2">
-        <v>0.04627135150330648</v>
+        <v>0.15525926505184</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.005425999999999999</v>
+        <v>0.0108025</v>
       </c>
       <c r="N2">
-        <v>0.010852</v>
+        <v>0.021605</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -573,16 +573,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.00030008493</v>
+        <v>0.001544217375</v>
       </c>
       <c r="R2">
-        <v>0.00120033972</v>
+        <v>0.006176869499999999</v>
       </c>
       <c r="S2">
-        <v>0.05948165296722621</v>
+        <v>0.2060161421345645</v>
       </c>
       <c r="T2">
-        <v>0.04627135150330648</v>
+        <v>0.15525926505184</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,22 +611,22 @@
         <v>0.742642</v>
       </c>
       <c r="I3">
-        <v>0.2662421946351253</v>
+        <v>0.356759332696974</v>
       </c>
       <c r="J3">
-        <v>0.3106685563974191</v>
+        <v>0.4032950371340628</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.005425999999999999</v>
+        <v>0.0108025</v>
       </c>
       <c r="N3">
-        <v>0.010852</v>
+        <v>0.021605</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -635,16 +635,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.001343191830666667</v>
+        <v>0.002674130068333333</v>
       </c>
       <c r="R3">
-        <v>0.008059150983999999</v>
+        <v>0.01604478041</v>
       </c>
       <c r="S3">
-        <v>0.2662421946351253</v>
+        <v>0.356759332696974</v>
       </c>
       <c r="T3">
-        <v>0.3106685563974191</v>
+        <v>0.4032950371340628</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,34 +661,34 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.1254893333333333</v>
+        <v>0.07505833333333334</v>
       </c>
       <c r="H4">
-        <v>0.376468</v>
+        <v>0.225175</v>
       </c>
       <c r="I4">
-        <v>0.1349663317317043</v>
+        <v>0.1081722858928543</v>
       </c>
       <c r="J4">
-        <v>0.1574874166688978</v>
+        <v>0.12228228404354</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.005425999999999999</v>
+        <v>0.0108025</v>
       </c>
       <c r="N4">
-        <v>0.010852</v>
+        <v>0.021605</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -697,16 +697,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.0006809051226666665</v>
+        <v>0.0008108176458333333</v>
       </c>
       <c r="R4">
-        <v>0.004085430735999999</v>
+        <v>0.004864905875000001</v>
       </c>
       <c r="S4">
-        <v>0.1349663317317043</v>
+        <v>0.1081722858928543</v>
       </c>
       <c r="T4">
-        <v>0.1574874166688978</v>
+        <v>0.12228228404354</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,28 +729,28 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3435785</v>
+        <v>0.097247</v>
       </c>
       <c r="H5">
-        <v>0.687157</v>
+        <v>0.194494</v>
       </c>
       <c r="I5">
-        <v>0.3695256686375578</v>
+        <v>0.1401500648769499</v>
       </c>
       <c r="J5">
-        <v>0.2874575814569891</v>
+        <v>0.1056208306995193</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.005425999999999999</v>
+        <v>0.0108025</v>
       </c>
       <c r="N5">
-        <v>0.010852</v>
+        <v>0.021605</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -759,16 +759,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.001864256941</v>
+        <v>0.0010505107175</v>
       </c>
       <c r="R5">
-        <v>0.007457027763999999</v>
+        <v>0.00420204287</v>
       </c>
       <c r="S5">
-        <v>0.3695256686375578</v>
+        <v>0.1401500648769499</v>
       </c>
       <c r="T5">
-        <v>0.2874575814569891</v>
+        <v>0.1056208306995193</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,34 +785,34 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.06202233333333333</v>
+        <v>0.02916366666666667</v>
       </c>
       <c r="H6">
-        <v>0.186067</v>
+        <v>0.087491</v>
       </c>
       <c r="I6">
-        <v>0.06670628166623196</v>
+        <v>0.04202998319108123</v>
       </c>
       <c r="J6">
-        <v>0.07783718976734225</v>
+        <v>0.04751237621073989</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.005425999999999999</v>
+        <v>0.0108025</v>
       </c>
       <c r="N6">
-        <v>0.010852</v>
+        <v>0.021605</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -821,16 +821,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.0003365331806666666</v>
+        <v>0.0003150405091666667</v>
       </c>
       <c r="R6">
-        <v>0.002019199083999999</v>
+        <v>0.001890243055</v>
       </c>
       <c r="S6">
-        <v>0.06670628166623196</v>
+        <v>0.04202998319108123</v>
       </c>
       <c r="T6">
-        <v>0.07783718976734225</v>
+        <v>0.04751237621073989</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,28 +853,28 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.09583999999999999</v>
+        <v>0.1019113333333333</v>
       </c>
       <c r="H7">
-        <v>0.28752</v>
+        <v>0.305734</v>
       </c>
       <c r="I7">
-        <v>0.1030778703621546</v>
+        <v>0.146872191207576</v>
       </c>
       <c r="J7">
-        <v>0.1202779042060454</v>
+        <v>0.1660302068602982</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.005425999999999999</v>
+        <v>0.0108025</v>
       </c>
       <c r="N7">
-        <v>0.010852</v>
+        <v>0.021605</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -883,16 +883,16 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>0.00052002784</v>
+        <v>0.001100897178333333</v>
       </c>
       <c r="R7">
-        <v>0.003120167039999999</v>
+        <v>0.00660538307</v>
       </c>
       <c r="S7">
-        <v>0.1030778703621546</v>
+        <v>0.146872191207576</v>
       </c>
       <c r="T7">
-        <v>0.1202779042060454</v>
+        <v>0.1660302068602982</v>
       </c>
     </row>
   </sheetData>
